--- a/Isaev/NewIsaev/expertiseOlikh.xlsx
+++ b/Isaev/NewIsaev/expertiseOlikh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Samples\DeepL\Isaev\NewIsaev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96BF95C-0917-481B-BB45-A1DAE53AC6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB6E29-52BF-417A-8CD2-BDE00B787844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>synthesis</t>
   </si>
@@ -107,13 +107,19 @@
     <t>no</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>experiment automation :)</t>
   </si>
   <si>
-    <t>defect engineering in silicon structure</t>
+    <t>The current-voltage characterization of barrier structures (metal-semiconductor, p-n junction) in a wide temperature range.</t>
+  </si>
+  <si>
+    <t>The current-voltage characteristics of silicon solar cells were simulated by using SCAPS software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  artificial deep neural networks were used to predict iron contamination in silicon solar cells. </t>
+  </si>
+  <si>
+    <t>The use of active ultrasound to defect engineering in the silicon structures.</t>
   </si>
 </sst>
 </file>
@@ -239,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -281,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +574,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,27 +730,27 @@
         <v>17</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="18" t="s">
-        <v>24</v>
+      <c r="C7" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="18"/>
+      <c r="F7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="20"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="18" t="s">
-        <v>24</v>
+      <c r="I7" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O7" s="8"/>
     </row>
